--- a/assets/app_memo.xlsx
+++ b/assets/app_memo.xlsx
@@ -1,128 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\python\vue\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="2"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9300" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="examples" sheetId="2" r:id="rId2"/>
-    <sheet name="keywords" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="examples" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="keywords" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>examples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험보다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,28 +53,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -425,201 +332,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>word1</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>wor1_test_02</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>wor1_test_02</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>test211</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>테스트211aaaa</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>word2</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col min="3" max="3" width="19.09765625" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.09765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>헬로우dfsdfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>dfsdfds</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>sfdsdfds</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>시험1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>시험1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>keyword3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>zzzdfdfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>hellow222</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/assets/app_memo.xlsx
+++ b/assets/app_memo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9300" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9300" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -337,7 +337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +419,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>테스트211aaaa</t>
+          <t>테스트211aaaa1</t>
         </is>
       </c>
       <c r="E3" s="0" t="n">
@@ -440,12 +440,12 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>hello1ㅇㄹㅇㄹ</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>안녕</t>
+          <t>안녕1ㅇㄹㅇㄹㅇ</t>
         </is>
       </c>
       <c r="E4" s="0" t="n">
@@ -453,6 +453,110 @@
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>fdsfds</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>sfsdfsd</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>word1</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>sfsd</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>safsd</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>word</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>sdfdsf</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>sfdsd</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>word2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dfsdfd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -467,13 +571,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="3" min="3" style="1" width="19.09765625"/>
   </cols>
@@ -504,59 +608,189 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>헬로우dfsdfd</t>
+          <t>헬로우dfsdfd11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>dfsdfds</t>
+          <t>test1232</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>sfdsdfds</t>
+          <t>test21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>safsdfsd11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>asfsdfsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>asfds</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>dfsdfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>55511</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>sfdsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sfdsdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
         </is>
       </c>
     </row>
@@ -571,9 +805,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -618,59 +852,176 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>시험1</t>
+          <t>시험111</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>zzzdfdfd</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>keyword3</t>
+          <t>ㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>zzzdfdfd</t>
+          <t>asfsdafsd</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>hellow222</t>
+          <t>asfdsdfsdf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>sfsdfsdf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>asdfsfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>adfsdfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>sadfsdfsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>sdfsdfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sdfsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sfdsfds</t>
         </is>
       </c>
     </row>
